--- a/Excel-Punto2_Carga_De_datos.xlsx
+++ b/Excel-Punto2_Carga_De_datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_murilloa_uniandes_edu_co/Documents/2024-01/Optimizacion/Entrenamientos/Entrenamiento3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{DF7073FC-0B38-45E1-BADC-4DD2769568AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D577D05-FFD8-4452-8654-D04D605FAB32}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{DF7073FC-0B38-45E1-BADC-4DD2769568AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0306F012-D99A-450E-B858-DEE583B347A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{453E9F2E-1655-4364-8FDC-8E947F73C7F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{453E9F2E-1655-4364-8FDC-8E947F73C7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimiento Minimo" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -124,7 +124,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5400594-03FA-4720-8A47-EB090BBBB079}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="155" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD67F1F-B0CF-4E9A-A150-CBBC4B726AD2}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>

--- a/Excel-Punto2_Carga_De_datos.xlsx
+++ b/Excel-Punto2_Carga_De_datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_murilloa_uniandes_edu_co/Documents/2024-01/Optimizacion/Entrenamientos/Entrenamiento3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{DF7073FC-0B38-45E1-BADC-4DD2769568AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0306F012-D99A-450E-B858-DEE583B347A9}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{DF7073FC-0B38-45E1-BADC-4DD2769568AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320F682B-1A44-49A8-9823-A36AAB1EDCD7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{453E9F2E-1655-4364-8FDC-8E947F73C7F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{453E9F2E-1655-4364-8FDC-8E947F73C7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimiento Minimo" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FE779B-8785-464E-8AD0-AA24C6C08643}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5400594-03FA-4720-8A47-EB090BBBB079}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" workbookViewId="0">
+    <sheetView zoomScale="155" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Excel-Punto2_Carga_De_datos.xlsx
+++ b/Excel-Punto2_Carga_De_datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_murilloa_uniandes_edu_co/Documents/2024-01/Optimizacion/Entrenamientos/Entrenamiento3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{DF7073FC-0B38-45E1-BADC-4DD2769568AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320F682B-1A44-49A8-9823-A36AAB1EDCD7}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{DF7073FC-0B38-45E1-BADC-4DD2769568AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E5A172-2A45-4004-902A-1D95C2D92EEB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{453E9F2E-1655-4364-8FDC-8E947F73C7F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{453E9F2E-1655-4364-8FDC-8E947F73C7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimiento Minimo" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FE779B-8785-464E-8AD0-AA24C6C08643}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="146" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5400594-03FA-4720-8A47-EB090BBBB079}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="155" workbookViewId="0">
+    <sheetView zoomScale="146" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79A9E22-F33F-474D-A57F-BB4806F91017}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
